--- a/stats.xlsx
+++ b/stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbrewster\Documents\teks\ExcelReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4EA0DC-B87A-4EC8-B78A-E23E668CDBBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A62C05-EB05-4E1C-BFFE-7BDFA64A4973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{F658C51F-30AF-4D3C-9AFE-D9E6A599C11D}"/>
+    <workbookView xWindow="-26685" yWindow="-1200" windowWidth="18090" windowHeight="10200" xr2:uid="{F658C51F-30AF-4D3C-9AFE-D9E6A599C11D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,50 +39,50 @@
     <t>rainmaker</t>
   </si>
   <si>
-    <t>swampnuts</t>
-  </si>
-  <si>
     <t>GOD WILLS IT</t>
   </si>
   <si>
-    <t>SCOTT_THE_TANK</t>
-  </si>
-  <si>
-    <t>osi's seal clubbers</t>
-  </si>
-  <si>
     <t>Epic7</t>
   </si>
   <si>
-    <t>Lundo's Legends</t>
-  </si>
-  <si>
-    <t>Smoke18</t>
-  </si>
-  <si>
-    <t>Hamilton's Killers</t>
-  </si>
-  <si>
-    <t>fausty is gay</t>
-  </si>
-  <si>
-    <t>Weebs</t>
-  </si>
-  <si>
-    <t>HOW'S-YOUR-ASPEN?</t>
-  </si>
-  <si>
-    <t>Fly Ballin'</t>
-  </si>
-  <si>
     <t>confusion</t>
+  </si>
+  <si>
+    <t>KING JOSEPH 1 3 1</t>
+  </si>
+  <si>
+    <t>Lundo’s Legends</t>
+  </si>
+  <si>
+    <t>MillerTime</t>
+  </si>
+  <si>
+    <t>PrimeTime</t>
+  </si>
+  <si>
+    <t>Samsquanches</t>
+  </si>
+  <si>
+    <t>SmokeWalkers</t>
+  </si>
+  <si>
+    <t>Splitfinger Skadoosh</t>
+  </si>
+  <si>
+    <t>Swampnuts</t>
+  </si>
+  <si>
+    <t>Sánteros</t>
+  </si>
+  <si>
+    <t>DJ's Quality Team</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +102,12 @@
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Yahoo Sans"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -124,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -147,12 +153,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFE7E7E7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -165,6 +180,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -483,352 +510,353 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9424BF9-632C-4426-AAE9-D4490AA13F9D}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6">
+        <v>49</v>
+      </c>
+      <c r="C1" s="6">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6">
+        <v>41</v>
+      </c>
+      <c r="E1" s="6">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="G1" s="6">
+        <v>0.76600000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29.5" thickBot="1">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6">
+        <v>49</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.79100000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>46</v>
+      </c>
+      <c r="C3" s="6">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6">
+        <v>45</v>
+      </c>
+      <c r="E3" s="6">
+        <v>6</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.66700000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="44" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6">
+        <v>25</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="29.5" thickBot="1">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6">
+        <v>47</v>
+      </c>
+      <c r="C5" s="6">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6">
+        <v>39</v>
+      </c>
+      <c r="E5" s="6">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29.5" thickBot="1">
+      <c r="A6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
+        <v>44</v>
+      </c>
+      <c r="C6" s="6">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6">
+        <v>6</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.79100000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29.5" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6">
+        <v>48</v>
+      </c>
+      <c r="C7" s="6">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6">
+        <v>49</v>
+      </c>
+      <c r="E7" s="6">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.251</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.78400000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29.5" thickBot="1">
+      <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>816</v>
-      </c>
-      <c r="C1" s="2">
-        <v>182</v>
-      </c>
-      <c r="D1" s="2">
-        <v>817</v>
-      </c>
-      <c r="E1" s="2">
-        <v>176</v>
-      </c>
-      <c r="F1" s="2">
-        <v>2547</v>
-      </c>
-      <c r="G1" s="2">
-        <v>0.28799999999999998</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>804</v>
-      </c>
-      <c r="C2" s="4">
-        <v>208</v>
-      </c>
-      <c r="D2" s="4">
-        <v>736</v>
-      </c>
-      <c r="E2" s="4">
-        <v>149</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2400</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A3" s="3" t="s">
+      <c r="B8" s="8">
+        <v>40</v>
+      </c>
+      <c r="C8" s="8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="8">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.69399999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29.5" thickBot="1">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>57</v>
+      </c>
+      <c r="C9" s="6">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6">
+        <v>60</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="29.5" thickBot="1">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>65</v>
+      </c>
+      <c r="C10" s="6">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6">
+        <v>57</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="58.5" thickBot="1">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>789</v>
-      </c>
-      <c r="C3" s="4">
-        <v>209</v>
-      </c>
-      <c r="D3" s="4">
-        <v>731</v>
-      </c>
-      <c r="E3" s="4">
-        <v>160</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2372</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>781</v>
-      </c>
-      <c r="C4" s="4">
-        <v>166</v>
-      </c>
-      <c r="D4" s="4">
-        <v>681</v>
-      </c>
-      <c r="E4" s="4">
-        <v>106</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2309</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>735</v>
-      </c>
-      <c r="C5" s="4">
-        <v>192</v>
-      </c>
-      <c r="D5" s="4">
-        <v>690</v>
-      </c>
-      <c r="E5" s="4">
-        <v>114</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2235</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.26500000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>726</v>
-      </c>
-      <c r="C6" s="4">
-        <v>199</v>
-      </c>
-      <c r="D6" s="4">
-        <v>738</v>
-      </c>
-      <c r="E6" s="4">
-        <v>104</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2266</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.26100000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A7" s="3" t="s">
+      <c r="F11" s="6">
+        <v>0.217</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29.5" thickBot="1">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>53</v>
+      </c>
+      <c r="C12" s="6">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6">
+        <v>33</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.221</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.67100000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>57</v>
+      </c>
+      <c r="C13" s="6">
+        <v>19</v>
+      </c>
+      <c r="D13" s="6">
+        <v>60</v>
+      </c>
+      <c r="E13" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>709</v>
-      </c>
-      <c r="C7" s="4">
-        <v>166</v>
-      </c>
-      <c r="D7" s="4">
-        <v>700</v>
-      </c>
-      <c r="E7" s="4">
-        <v>133</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2253</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>704</v>
-      </c>
-      <c r="C8" s="4">
-        <v>198</v>
-      </c>
-      <c r="D8" s="4">
-        <v>676</v>
-      </c>
-      <c r="E8" s="4">
-        <v>136</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2133</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.25700000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A9" s="3" t="s">
+      <c r="F13" s="6">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.85399999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="43.5">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>46</v>
+      </c>
+      <c r="C14" s="6">
+        <v>20</v>
+      </c>
+      <c r="D14" s="6">
+        <v>54</v>
+      </c>
+      <c r="E14" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>696</v>
-      </c>
-      <c r="C9" s="4">
-        <v>170</v>
-      </c>
-      <c r="D9" s="4">
-        <v>684</v>
-      </c>
-      <c r="E9" s="4">
-        <v>70</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2243</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>695</v>
-      </c>
-      <c r="C10" s="4">
-        <v>168</v>
-      </c>
-      <c r="D10" s="4">
-        <v>707</v>
-      </c>
-      <c r="E10" s="4">
-        <v>105</v>
-      </c>
-      <c r="F10" s="4">
-        <v>2276</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.27800000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>676</v>
-      </c>
-      <c r="C11" s="4">
-        <v>197</v>
-      </c>
-      <c r="D11" s="4">
-        <v>646</v>
-      </c>
-      <c r="E11" s="4">
-        <v>60</v>
-      </c>
-      <c r="F11" s="4">
-        <v>2117</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.26100000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="44" thickBot="1">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>648</v>
-      </c>
-      <c r="C12" s="4">
-        <v>170</v>
-      </c>
-      <c r="D12" s="4">
-        <v>614</v>
-      </c>
-      <c r="E12" s="4">
-        <v>105</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2107</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.25900000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>637</v>
-      </c>
-      <c r="C13" s="4">
-        <v>171</v>
-      </c>
-      <c r="D13" s="4">
-        <v>695</v>
-      </c>
-      <c r="E13" s="4">
-        <v>56</v>
-      </c>
-      <c r="F13" s="4">
-        <v>2171</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>615</v>
-      </c>
-      <c r="C14" s="4">
-        <v>145</v>
-      </c>
-      <c r="D14" s="4">
-        <v>636</v>
-      </c>
-      <c r="E14" s="4">
-        <v>121</v>
-      </c>
-      <c r="F14" s="4">
-        <v>2035</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.25700000000000001</v>
+      <c r="F14" s="6">
+        <v>0.251</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.79400000000000004</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/13" xr:uid="{48DDF0E9-ADEC-48D0-93C9-86746632513E}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/11" xr:uid="{EC1CE668-FB75-464B-A724-1122EBE159B2}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/1" xr:uid="{ED82F4CE-F227-4202-9C33-36C8E5273698}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/8" xr:uid="{75FC0916-7328-4501-B14C-19B604DB20B4}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/2" xr:uid="{F17EB163-551B-4170-9478-CF2E2C16D743}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/4" xr:uid="{529ABA8C-26EB-42E0-8E82-F1AAC919E9FA}"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/6" xr:uid="{466B6884-B325-468F-94B1-024FD3667004}"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/12" xr:uid="{9826DCF4-6F51-4CE5-9796-26F6FD36A3FE}"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/5" xr:uid="{C5415D23-13F4-4678-98BE-126F9247E31D}"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/10" xr:uid="{004FCB03-3A7B-4493-95B1-45878A88F670}"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/14" xr:uid="{F3B6A3AD-2146-489F-930D-1BE18F7E09B0}"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/7" xr:uid="{3E2F1DA2-E545-413B-92DF-0F3D9B16D822}"/>
-    <hyperlink ref="A13" r:id="rId13" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/9" xr:uid="{06726288-1B9D-4F46-8362-212C965F3360}"/>
-    <hyperlink ref="A14" r:id="rId14" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/3" xr:uid="{632D47E9-2F6F-4E24-BAFD-2F753022C673}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://baseball.fantasysports.yahoo.com/b1/29905/1" xr:uid="{7C1B604A-481A-400E-9035-272790194B68}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://baseball.fantasysports.yahoo.com/b1/29905/3" xr:uid="{DEB8FA66-9E89-4E82-AF1D-3CDC3AA27CFE}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://baseball.fantasysports.yahoo.com/b1/29905/4" xr:uid="{815A03C5-7CEA-45BE-A4D6-D7825DCC3B4B}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://baseball.fantasysports.yahoo.com/b1/29905/5" xr:uid="{9B3D8EEB-60AC-43C8-BAA1-17408ADC9255}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://baseball.fantasysports.yahoo.com/b1/29905/6" xr:uid="{CB68E280-A888-41C2-9FEC-F84725C14731}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://baseball.fantasysports.yahoo.com/b1/29905/7" xr:uid="{8400733F-0C36-435D-BC6D-4E6DB9015251}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://baseball.fantasysports.yahoo.com/b1/29905/8" xr:uid="{F879C8D2-D790-406F-BA0A-DA96455EB2AD}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://baseball.fantasysports.yahoo.com/b1/29905/9" xr:uid="{1B013BDB-122B-449D-9024-1BA3AB58E8F0}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://baseball.fantasysports.yahoo.com/b1/29905/10" xr:uid="{C5A0B3A6-C497-495A-845B-72A2B020D6ED}"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://baseball.fantasysports.yahoo.com/b1/29905/11" xr:uid="{F6921941-1071-4D65-B085-25BB9202B35E}"/>
+    <hyperlink ref="A11" r:id="rId11" display="https://baseball.fantasysports.yahoo.com/b1/29905/12" xr:uid="{FF70695E-A118-475A-A753-611AECDAA326}"/>
+    <hyperlink ref="A12" r:id="rId12" display="https://baseball.fantasysports.yahoo.com/b1/29905/13" xr:uid="{FB1383D9-E1AB-4CB1-9AA1-112CAC5869EF}"/>
+    <hyperlink ref="A13" r:id="rId13" display="https://baseball.fantasysports.yahoo.com/b1/29905/14" xr:uid="{F5037FEB-13AA-43A7-B1AF-0A75DF0EBCBC}"/>
+    <hyperlink ref="A14" r:id="rId14" display="https://baseball.fantasysports.yahoo.com/b1/29905/15" xr:uid="{8B218AEE-EB8C-4360-AD70-58E0AF871202}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -836,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD769BA7-D47A-4937-BEB8-A2DC55CCE3AF}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -844,117 +872,117 @@
   <sheetData>
     <row r="1" spans="1:7" ht="29.5" thickBot="1">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
         <v>2</v>
       </c>
-      <c r="B1" s="4">
-        <v>126</v>
-      </c>
       <c r="C1" s="4">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D1" s="4">
-        <v>1520</v>
+        <v>2.85</v>
       </c>
       <c r="E1" s="4">
-        <v>3.57</v>
+        <v>1.21</v>
       </c>
       <c r="F1" s="4">
-        <v>1.22</v>
+        <v>5</v>
       </c>
       <c r="G1" s="4">
-        <v>145</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.5" thickBot="1">
       <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>92</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3.07</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
-        <v>111</v>
-      </c>
-      <c r="C2" s="4">
-        <v>81</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1478</v>
-      </c>
-      <c r="E2" s="4">
-        <v>3.99</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1.24</v>
-      </c>
-      <c r="G2" s="4">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4">
-        <v>104</v>
-      </c>
       <c r="C3" s="4">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="D3" s="4">
-        <v>1380</v>
+        <v>1.9</v>
       </c>
       <c r="E3" s="4">
-        <v>4.03</v>
+        <v>0.74</v>
       </c>
       <c r="F3" s="4">
-        <v>1.32</v>
+        <v>9</v>
       </c>
       <c r="G3" s="4">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="44" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D4" s="4">
-        <v>1329</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="E4" s="4">
-        <v>4.1399999999999997</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="F4" s="4">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="4">
-        <v>137</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29.5" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="D5" s="4">
-        <v>985</v>
+        <v>5.07</v>
       </c>
       <c r="E5" s="4">
-        <v>4.0199999999999996</v>
+        <v>1.31</v>
       </c>
       <c r="F5" s="4">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4">
-        <v>110</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29.5" thickBot="1">
@@ -962,91 +990,91 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D6" s="4">
-        <v>1463</v>
+        <v>2.67</v>
       </c>
       <c r="E6" s="4">
-        <v>3.53</v>
+        <v>0.89</v>
       </c>
       <c r="F6" s="4">
-        <v>1.23</v>
+        <v>6</v>
       </c>
       <c r="G6" s="4">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="44" thickBot="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29.5" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D7" s="4">
-        <v>1428</v>
+        <v>4.12</v>
       </c>
       <c r="E7" s="4">
-        <v>3.58</v>
+        <v>1.43</v>
       </c>
       <c r="F7" s="4">
-        <v>1.27</v>
+        <v>6</v>
       </c>
       <c r="G7" s="4">
-        <v>163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29.5" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" s="4">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="D8" s="4">
-        <v>1075</v>
+        <v>3.88</v>
       </c>
       <c r="E8" s="4">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="F8" s="4">
-        <v>1.31</v>
+        <v>8</v>
       </c>
       <c r="G8" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="29.5" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="D9" s="4">
-        <v>1337</v>
+        <v>5.03</v>
       </c>
       <c r="E9" s="4">
-        <v>3.31</v>
+        <v>1.27</v>
       </c>
       <c r="F9" s="4">
-        <v>1.17</v>
+        <v>8</v>
       </c>
       <c r="G9" s="4">
-        <v>147</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29.5" thickBot="1">
@@ -1054,133 +1082,117 @@
         <v>9</v>
       </c>
       <c r="B10" s="4">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="C10" s="4">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="D10" s="4">
-        <v>974</v>
+        <v>3.56</v>
       </c>
       <c r="E10" s="4">
-        <v>3.35</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F10" s="4">
-        <v>1.21</v>
+        <v>3</v>
       </c>
       <c r="G10" s="4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="29.5" thickBot="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="58.5" thickBot="1">
       <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>95</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3.54</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1.36</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="4">
-        <v>101</v>
-      </c>
-      <c r="C11" s="4">
-        <v>86</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1531</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3.71</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1.24</v>
-      </c>
-      <c r="G11" s="4">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1">
+    </row>
+    <row r="12" spans="1:7" ht="29.5" thickBot="1">
       <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>121</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4.05</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1.33</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" thickBot="1">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5.08</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="44" thickBot="1">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="4">
-        <v>60</v>
-      </c>
-      <c r="C12" s="4">
-        <v>101</v>
-      </c>
-      <c r="D12" s="4">
-        <v>815</v>
-      </c>
-      <c r="E12" s="4">
-        <v>4.0199999999999996</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1.36</v>
-      </c>
-      <c r="G12" s="4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="29.5" thickBot="1">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2">
-        <v>107</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1431</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3.32</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="G13" s="2">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4">
-        <v>79</v>
-      </c>
       <c r="C14" s="4">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D14" s="4">
-        <v>1047</v>
+        <v>4.8</v>
       </c>
       <c r="E14" s="4">
-        <v>3.52</v>
+        <v>1.28</v>
       </c>
       <c r="F14" s="4">
-        <v>1.27</v>
+        <v>5</v>
       </c>
       <c r="G14" s="4">
-        <v>102</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/1" xr:uid="{3ECA4CF5-BE8C-4FF8-865C-1EA0D0741DF1}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/2" xr:uid="{F4B32EB0-508C-4569-A6A6-6F172806BBB7}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/3" xr:uid="{F6DBBEF4-33BD-4D81-8A12-365275C3843C}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/4" xr:uid="{7279BCCC-F926-4B5E-B991-212CAA1771D8}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/5" xr:uid="{3B538527-5787-428B-93B9-FD1E95EFF4EC}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/6" xr:uid="{F493AAF3-B8C5-4240-82D6-3F7B16FC2D07}"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/7" xr:uid="{ECD8316A-90A9-4B92-B908-19EFF1906B0F}"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/8" xr:uid="{09F4E47B-1A81-43A7-881C-D2CAFA3B89E2}"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/9" xr:uid="{E6A9B4C6-BFC6-439D-A00A-525321D241D3}"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/10" xr:uid="{52BF10F7-3169-4AA9-8049-E16C64EE419C}"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/11" xr:uid="{7DC3A095-3FBB-4F9E-A8CC-B6C862686AA8}"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/12" xr:uid="{391122DF-D3B1-43D1-91D4-F0EE8D859577}"/>
-    <hyperlink ref="A13" r:id="rId13" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/13" xr:uid="{438AC3EF-A07D-47B4-A5B9-05BBA7AD2D9C}"/>
-    <hyperlink ref="A14" r:id="rId14" display="https://baseball.fantasysports.yahoo.com/2011/b1/84177/14" xr:uid="{38D1552E-95AA-48B2-AE1D-C66751BC1CBA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stats.xlsx
+++ b/stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbrewster\Documents\teks\ExcelReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDD9441-BE91-4E02-8EFE-473325248673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35105EA7-010D-4900-B54E-BDB74E708421}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{F658C51F-30AF-4D3C-9AFE-D9E6A599C11D}"/>
+    <workbookView xWindow="-28920" yWindow="-1665" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F658C51F-30AF-4D3C-9AFE-D9E6A599C11D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,22 +489,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="2">
-        <v>493</v>
+        <v>677</v>
       </c>
       <c r="C1" s="2">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="D1" s="2">
-        <v>516</v>
+        <v>720</v>
       </c>
       <c r="E1" s="2">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F1" s="2">
-        <v>0.26900000000000002</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="G1" s="2">
-        <v>0.80700000000000005</v>
+        <v>0.79600000000000004</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -512,22 +512,22 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>550</v>
+        <v>741</v>
       </c>
       <c r="C2" s="2">
-        <v>152</v>
+        <v>212</v>
       </c>
       <c r="D2" s="2">
-        <v>508</v>
+        <v>699</v>
       </c>
       <c r="E2" s="2">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2">
         <v>0.25</v>
       </c>
       <c r="G2" s="2">
-        <v>0.78700000000000003</v>
+        <v>0.78600000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -535,22 +535,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>509</v>
+        <v>734</v>
       </c>
       <c r="C3" s="2">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="D3" s="2">
-        <v>487</v>
+        <v>677</v>
       </c>
       <c r="E3" s="2">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2">
-        <v>0.24099999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="G3" s="2">
-        <v>0.73399999999999999</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -558,22 +558,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>432</v>
+        <v>631</v>
       </c>
       <c r="C4" s="2">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="D4" s="2">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="E4" s="2">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="F4" s="2">
-        <v>0.253</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="G4" s="2">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -581,22 +581,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>539</v>
+        <v>724</v>
       </c>
       <c r="C5" s="2">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="D5" s="2">
-        <v>499</v>
+        <v>674</v>
       </c>
       <c r="E5" s="2">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F5" s="2">
-        <v>0.26700000000000002</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="G5" s="2">
-        <v>0.82099999999999995</v>
+        <v>0.81399999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -604,22 +604,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>492</v>
+        <v>670</v>
       </c>
       <c r="C6" s="2">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="D6" s="2">
-        <v>423</v>
+        <v>587</v>
       </c>
       <c r="E6" s="2">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="F6" s="2">
-        <v>0.26400000000000001</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="G6" s="2">
-        <v>0.76800000000000002</v>
+        <v>0.77200000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -627,22 +627,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>506</v>
+        <v>720</v>
       </c>
       <c r="C7" s="2">
-        <v>145</v>
+        <v>209</v>
       </c>
       <c r="D7" s="2">
-        <v>483</v>
+        <v>686</v>
       </c>
       <c r="E7" s="2">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F7" s="2">
-        <v>0.251</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="G7" s="2">
-        <v>0.76200000000000001</v>
+        <v>0.77600000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -650,22 +650,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="4">
-        <v>551</v>
+        <v>786</v>
       </c>
       <c r="C8" s="4">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="D8" s="4">
-        <v>507</v>
+        <v>739</v>
       </c>
       <c r="E8" s="4">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="F8" s="4">
-        <v>0.25700000000000001</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="G8" s="4">
-        <v>0.79</v>
+        <v>0.80900000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -673,22 +673,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>498</v>
+        <v>696</v>
       </c>
       <c r="C9" s="2">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="D9" s="2">
-        <v>470</v>
+        <v>659</v>
       </c>
       <c r="E9" s="2">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2">
-        <v>0.26</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="G9" s="2">
-        <v>0.79100000000000004</v>
+        <v>0.80200000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -696,22 +696,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>538</v>
+        <v>736</v>
       </c>
       <c r="C10" s="2">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="D10" s="2">
-        <v>469</v>
+        <v>640</v>
       </c>
       <c r="E10" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F10" s="2">
-        <v>0.25600000000000001</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="G10" s="2">
-        <v>0.751</v>
+        <v>0.76600000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -719,22 +719,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>499</v>
+        <v>720</v>
       </c>
       <c r="C11" s="2">
-        <v>164</v>
+        <v>241</v>
       </c>
       <c r="D11" s="2">
-        <v>476</v>
+        <v>680</v>
       </c>
       <c r="E11" s="2">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2">
-        <v>0.254</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="G11" s="2">
-        <v>0.79700000000000004</v>
+        <v>0.80900000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -742,22 +742,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>534</v>
+        <v>732</v>
       </c>
       <c r="C12" s="2">
-        <v>156</v>
+        <v>222</v>
       </c>
       <c r="D12" s="2">
-        <v>510</v>
+        <v>723</v>
       </c>
       <c r="E12" s="2">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="F12" s="2">
-        <v>0.25900000000000001</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="G12" s="2">
-        <v>0.79100000000000004</v>
+        <v>0.79200000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -765,22 +765,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>520</v>
+        <v>728</v>
       </c>
       <c r="C13" s="2">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="D13" s="2">
-        <v>561</v>
+        <v>746</v>
       </c>
       <c r="E13" s="2">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F13" s="2">
-        <v>0.253</v>
+        <v>0.25800000000000001</v>
       </c>
       <c r="G13" s="2">
-        <v>0.76500000000000001</v>
+        <v>0.77600000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -788,19 +788,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>530</v>
+        <v>718</v>
       </c>
       <c r="C14" s="2">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="D14" s="2">
-        <v>546</v>
+        <v>755</v>
       </c>
       <c r="E14" s="2">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F14" s="2">
-        <v>0.254</v>
+        <v>0.25</v>
       </c>
       <c r="G14" s="2">
         <v>0.79900000000000004</v>
@@ -808,20 +808,20 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://baseball.fantasysports.yahoo.com/b1/29905/1" xr:uid="{706AD5E4-4E22-4E39-80F0-410D37103B22}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://baseball.fantasysports.yahoo.com/b1/29905/3" xr:uid="{64F36E41-ADC0-4FD7-90A8-06B958B647B3}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://baseball.fantasysports.yahoo.com/b1/29905/4" xr:uid="{65A9D5BF-1A30-4270-961D-BC62391F58C8}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://baseball.fantasysports.yahoo.com/b1/29905/5" xr:uid="{F20D411C-4F80-4EB2-9745-9B9EF948525B}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://baseball.fantasysports.yahoo.com/b1/29905/6" xr:uid="{78A5233D-52CE-43D8-9237-545AAD2223B8}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://baseball.fantasysports.yahoo.com/b1/29905/7" xr:uid="{444B4A9B-95A3-4265-B978-38DAAA7E5F38}"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://baseball.fantasysports.yahoo.com/b1/29905/8" xr:uid="{5D3631C5-5C83-469B-9D9E-7CD28E8A358A}"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://baseball.fantasysports.yahoo.com/b1/29905/9" xr:uid="{2DA6A2A5-A511-45CB-8C7C-9FC8C57D2DE2}"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://baseball.fantasysports.yahoo.com/b1/29905/10" xr:uid="{716C37E1-A3A8-4DE7-8E12-1A869C914E22}"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://baseball.fantasysports.yahoo.com/b1/29905/11" xr:uid="{BFC15A98-D0A1-4B20-B493-C3F564E8CBBE}"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://baseball.fantasysports.yahoo.com/b1/29905/12" xr:uid="{5E7128D5-EA5E-4CB6-8BBF-7B20521BCB88}"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://baseball.fantasysports.yahoo.com/b1/29905/13" xr:uid="{DE6CA4DB-3C8E-4264-A8B0-691A4DDD8108}"/>
-    <hyperlink ref="A13" r:id="rId13" display="https://baseball.fantasysports.yahoo.com/b1/29905/14" xr:uid="{BED2D158-128F-4095-B126-50F67FB7E4EA}"/>
-    <hyperlink ref="A14" r:id="rId14" display="https://baseball.fantasysports.yahoo.com/b1/29905/15" xr:uid="{0A9049B4-3EDE-40D7-A3FF-8F5707F68D6D}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://baseball.fantasysports.yahoo.com/b1/29905/1" xr:uid="{698A05E0-A0E5-4AAA-9023-9AA4089B59F0}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://baseball.fantasysports.yahoo.com/b1/29905/3" xr:uid="{DF63C015-F062-4C14-948A-40939370E69C}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://baseball.fantasysports.yahoo.com/b1/29905/4" xr:uid="{4DEE6337-E3A0-4DB5-83EE-12EBFA20E4A4}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://baseball.fantasysports.yahoo.com/b1/29905/5" xr:uid="{579BB48F-3065-45F3-B51D-E964BA33B5FE}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://baseball.fantasysports.yahoo.com/b1/29905/6" xr:uid="{E7992124-FED2-4A2A-820A-97075494C75A}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://baseball.fantasysports.yahoo.com/b1/29905/7" xr:uid="{9E2C6DC8-ED11-44BA-B5F3-D3EAC4F2DF51}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://baseball.fantasysports.yahoo.com/b1/29905/8" xr:uid="{F4230918-7E82-44B5-9A3D-9BA035B2FABA}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://baseball.fantasysports.yahoo.com/b1/29905/9" xr:uid="{795E5BE4-38F1-4222-9C73-725061D632B1}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://baseball.fantasysports.yahoo.com/b1/29905/10" xr:uid="{A1CB28C5-E082-4085-AE86-D49CC279CF83}"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://baseball.fantasysports.yahoo.com/b1/29905/11" xr:uid="{D116425B-9BEA-4D21-A5D3-423721F2E905}"/>
+    <hyperlink ref="A11" r:id="rId11" display="https://baseball.fantasysports.yahoo.com/b1/29905/12" xr:uid="{0FD814E4-1AB1-49FD-8354-083F9B5D7F32}"/>
+    <hyperlink ref="A12" r:id="rId12" display="https://baseball.fantasysports.yahoo.com/b1/29905/13" xr:uid="{D60595FD-3831-4281-92F2-13F7D62D6BCE}"/>
+    <hyperlink ref="A13" r:id="rId13" display="https://baseball.fantasysports.yahoo.com/b1/29905/14" xr:uid="{4E38C3B0-7EA6-4F9F-B42E-922FD1456751}"/>
+    <hyperlink ref="A14" r:id="rId14" display="https://baseball.fantasysports.yahoo.com/b1/29905/15" xr:uid="{53E530B9-E473-49DE-991C-87695851E495}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId15"/>
@@ -833,7 +833,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G14"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -843,22 +843,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="2">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C1" s="2">
-        <v>1133</v>
+        <v>1557</v>
       </c>
       <c r="D1" s="2">
-        <v>3.92</v>
+        <v>4.18</v>
       </c>
       <c r="E1" s="2">
         <v>1.26</v>
       </c>
       <c r="F1" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="G1" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -866,22 +866,22 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2">
-        <v>1122</v>
+        <v>1552</v>
       </c>
       <c r="D2" s="2">
-        <v>4.29</v>
+        <v>4.38</v>
       </c>
       <c r="E2" s="2">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="F2" s="2">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="G2" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -889,22 +889,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2">
-        <v>1016</v>
+        <v>1286</v>
       </c>
       <c r="D3" s="2">
-        <v>3.55</v>
+        <v>3.74</v>
       </c>
       <c r="E3" s="2">
-        <v>1.1499999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="F3" s="2">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G3" s="2">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -912,22 +912,22 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2">
-        <v>829</v>
+        <v>1184</v>
       </c>
       <c r="D4" s="2">
-        <v>3.35</v>
+        <v>3.34</v>
       </c>
       <c r="E4" s="2">
-        <v>1.08</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F4" s="2">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -935,22 +935,22 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C5" s="2">
-        <v>1015</v>
+        <v>1352</v>
       </c>
       <c r="D5" s="2">
-        <v>4.38</v>
+        <v>4.45</v>
       </c>
       <c r="E5" s="2">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="F5" s="2">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G5" s="2">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -958,22 +958,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2">
-        <v>988</v>
+        <v>1357</v>
       </c>
       <c r="D6" s="2">
-        <v>3.87</v>
+        <v>3.81</v>
       </c>
       <c r="E6" s="2">
         <v>1.21</v>
       </c>
       <c r="F6" s="2">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="G6" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -981,22 +981,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2">
-        <v>950</v>
+        <v>1293</v>
       </c>
       <c r="D7" s="2">
-        <v>4.2300000000000004</v>
+        <v>4.51</v>
       </c>
       <c r="E7" s="2">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="F7" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="G7" s="2">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1004,22 +1004,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="4">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C8" s="4">
-        <v>1135</v>
+        <v>1554</v>
       </c>
       <c r="D8" s="4">
-        <v>3.83</v>
+        <v>4.04</v>
       </c>
       <c r="E8" s="4">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="F8" s="4">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G8" s="4">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1027,22 +1027,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2">
-        <v>1141</v>
+        <v>1523</v>
       </c>
       <c r="D9" s="2">
-        <v>3.97</v>
+        <v>4.05</v>
       </c>
       <c r="E9" s="2">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="F9" s="2">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="G9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1050,22 +1050,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C10" s="2">
-        <v>1104</v>
+        <v>1486</v>
       </c>
       <c r="D10" s="2">
-        <v>3.91</v>
+        <v>3.99</v>
       </c>
       <c r="E10" s="2">
         <v>1.24</v>
       </c>
       <c r="F10" s="2">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="G10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1073,22 +1073,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2">
-        <v>985</v>
+        <v>1356</v>
       </c>
       <c r="D11" s="2">
-        <v>3.56</v>
+        <v>3.86</v>
       </c>
       <c r="E11" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.22</v>
       </c>
       <c r="F11" s="2">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G11" s="2">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -1096,22 +1096,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2">
-        <v>1146</v>
+        <v>1464</v>
       </c>
       <c r="D12" s="2">
-        <v>3.64</v>
+        <v>3.86</v>
       </c>
       <c r="E12" s="2">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="F12" s="2">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G12" s="2">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1119,22 +1119,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2">
-        <v>685</v>
+        <v>925</v>
       </c>
       <c r="D13" s="2">
-        <v>4.4400000000000004</v>
+        <v>4.42</v>
       </c>
       <c r="E13" s="2">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="F13" s="2">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -1142,41 +1142,42 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2">
-        <v>997</v>
+        <v>1337</v>
       </c>
       <c r="D14" s="2">
-        <v>3.56</v>
+        <v>3.72</v>
       </c>
       <c r="E14" s="2">
-        <v>1.1599999999999999</v>
+        <v>1.19</v>
       </c>
       <c r="F14" s="2">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="G14" s="2">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://baseball.fantasysports.yahoo.com/b1/29905/1" xr:uid="{34A97C71-F420-4088-A0DD-20C3229FF464}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://baseball.fantasysports.yahoo.com/b1/29905/3" xr:uid="{516A0371-63DC-4435-B3D0-1642059B66A4}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://baseball.fantasysports.yahoo.com/b1/29905/4" xr:uid="{496B14C8-1AD0-429C-B692-CF919842A8E5}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://baseball.fantasysports.yahoo.com/b1/29905/5" xr:uid="{A66F5148-227C-4A83-B780-350ED1F1B401}"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://baseball.fantasysports.yahoo.com/b1/29905/6" xr:uid="{55587CAC-65F7-4E2C-BA4F-39B7304CB319}"/>
-    <hyperlink ref="A6" r:id="rId6" display="https://baseball.fantasysports.yahoo.com/b1/29905/7" xr:uid="{660BEF5D-F094-47FF-862F-EDE2896711D7}"/>
-    <hyperlink ref="A7" r:id="rId7" display="https://baseball.fantasysports.yahoo.com/b1/29905/8" xr:uid="{490B688A-73BD-4C46-8FE2-BD378B4ABED9}"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://baseball.fantasysports.yahoo.com/b1/29905/9" xr:uid="{2FC6355B-2DF9-418F-9DCB-DF8D747F0296}"/>
-    <hyperlink ref="A9" r:id="rId9" display="https://baseball.fantasysports.yahoo.com/b1/29905/10" xr:uid="{DD50C01C-1F64-43CF-9060-36D8A0A72DD5}"/>
-    <hyperlink ref="A10" r:id="rId10" display="https://baseball.fantasysports.yahoo.com/b1/29905/11" xr:uid="{7B5F3BED-4C3D-42FD-B498-66E315B9AE9F}"/>
-    <hyperlink ref="A11" r:id="rId11" display="https://baseball.fantasysports.yahoo.com/b1/29905/12" xr:uid="{A8D32300-282D-4D96-8D97-9666A66233A2}"/>
-    <hyperlink ref="A12" r:id="rId12" display="https://baseball.fantasysports.yahoo.com/b1/29905/13" xr:uid="{5CF9C555-6C2F-43B2-B834-65E0405B07E1}"/>
-    <hyperlink ref="A13" r:id="rId13" display="https://baseball.fantasysports.yahoo.com/b1/29905/14" xr:uid="{BCA24F39-D6FC-4589-9D76-1152D476484B}"/>
-    <hyperlink ref="A14" r:id="rId14" display="https://baseball.fantasysports.yahoo.com/b1/29905/15" xr:uid="{4AD8C469-237A-4B75-8997-E8103145E461}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://baseball.fantasysports.yahoo.com/b1/29905/1" xr:uid="{B9258295-4992-482E-8835-223F78C635AF}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://baseball.fantasysports.yahoo.com/b1/29905/3" xr:uid="{ECF4050E-7D54-4860-B5C6-DADAE28CAC4D}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://baseball.fantasysports.yahoo.com/b1/29905/4" xr:uid="{402C7C93-979B-4A4D-BD6B-D94F7C9F324C}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://baseball.fantasysports.yahoo.com/b1/29905/5" xr:uid="{961F516F-0C38-4DDF-9AEF-2A68BB6D42E0}"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://baseball.fantasysports.yahoo.com/b1/29905/6" xr:uid="{C5C18A8D-67FC-4D73-ADC3-5D03E8BCDB32}"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://baseball.fantasysports.yahoo.com/b1/29905/7" xr:uid="{8803FC8D-B3FB-4601-A60A-C2D8BDBFCD5C}"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://baseball.fantasysports.yahoo.com/b1/29905/8" xr:uid="{9096EE09-1318-4F7E-92F7-4692001EBC94}"/>
+    <hyperlink ref="A8" r:id="rId8" display="https://baseball.fantasysports.yahoo.com/b1/29905/9" xr:uid="{C5D4D405-A7FD-4070-B112-FEE54732E0F5}"/>
+    <hyperlink ref="A9" r:id="rId9" display="https://baseball.fantasysports.yahoo.com/b1/29905/10" xr:uid="{AC067905-0C5A-4364-899C-6E864A2503BB}"/>
+    <hyperlink ref="A10" r:id="rId10" display="https://baseball.fantasysports.yahoo.com/b1/29905/11" xr:uid="{EF22D1B7-1A93-42AF-8EF4-950A676B23B1}"/>
+    <hyperlink ref="A11" r:id="rId11" display="https://baseball.fantasysports.yahoo.com/b1/29905/12" xr:uid="{C370E696-4400-4005-A982-3A4D66B960A8}"/>
+    <hyperlink ref="A12" r:id="rId12" display="https://baseball.fantasysports.yahoo.com/b1/29905/13" xr:uid="{174B2323-A837-43FE-96A9-537FCAD26910}"/>
+    <hyperlink ref="A13" r:id="rId13" display="https://baseball.fantasysports.yahoo.com/b1/29905/14" xr:uid="{8C97A1C1-15C3-43CA-A8CC-9A48C99F1A0E}"/>
+    <hyperlink ref="A14" r:id="rId14" display="https://baseball.fantasysports.yahoo.com/b1/29905/15" xr:uid="{10373002-46EC-4177-9630-111899F0F8EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
--- a/stats.xlsx
+++ b/stats.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">DJ's Quality Team</t>
   </si>
   <si>
-    <t xml:space="preserve">overRated vs Audigy Scum</t>
+    <t xml:space="preserve">Epic7</t>
   </si>
   <si>
     <t xml:space="preserve">Lundo’s Legends</t>
@@ -162,8 +162,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -251,32 +251,32 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>48</v>
+        <v>521</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>32</v>
+        <v>502</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>0.209</v>
+        <v>0.237</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>0.674</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,22 +284,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>40</v>
+        <v>475</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>37</v>
+        <v>488</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.227</v>
+        <v>0.254</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.681</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -307,22 +307,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>48</v>
+        <v>513</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>38</v>
+        <v>446</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.241</v>
+        <v>0.266</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.71</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -330,22 +330,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>57</v>
+        <v>526</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>55</v>
+        <v>504</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0.226</v>
+        <v>0.244</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.754</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,22 +353,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>51</v>
+        <v>503</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>36</v>
+        <v>507</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.298</v>
+        <v>0.256</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.861</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,22 +376,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>36</v>
+        <v>455</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>39</v>
+        <v>445</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.196</v>
+        <v>0.249</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.62</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -399,22 +399,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>39</v>
+        <v>455</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>35</v>
+        <v>442</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0.211</v>
+        <v>0.239</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0.658</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,22 +422,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>37</v>
+        <v>522</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>35</v>
+        <v>528</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.251</v>
+        <v>0.265</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.702</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,22 +445,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
+        <v>488</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>487</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="F9" s="2" t="n">
-        <v>0.231</v>
+        <v>0.259</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.662</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,22 +468,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>61</v>
+        <v>510</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>74</v>
+        <v>487</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0.311</v>
+        <v>0.259</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0.975</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -491,22 +491,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44</v>
+        <v>500</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>52</v>
+        <v>508</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.205</v>
+        <v>0.247</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0.71</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,22 +514,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>46</v>
+        <v>538</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>9</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44</v>
+        <v>510</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.228</v>
+        <v>0.253</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0.661</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -537,22 +537,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
+        <v>469</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>492</v>
+      </c>
+      <c r="E13" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="F13" s="2" t="n">
-        <v>0.222</v>
+        <v>0.238</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>0.718</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,22 +560,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45</v>
+        <v>505</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>39</v>
+        <v>434</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.262</v>
+        <v>0.267</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0.735</v>
+        <v>0.742</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +583,7 @@
     <hyperlink ref="A1" r:id="rId1" display="GOD WILLS IT"/>
     <hyperlink ref="A2" r:id="rId2" display="confusion"/>
     <hyperlink ref="A3" r:id="rId3" display="DJ's Quality Team"/>
-    <hyperlink ref="A4" r:id="rId4" display="overRated vs Audigy Scum"/>
+    <hyperlink ref="A4" r:id="rId4" display="Epic7"/>
     <hyperlink ref="A5" r:id="rId5" display="Lundo’s Legends"/>
     <hyperlink ref="A6" r:id="rId6" display="MillerTime"/>
     <hyperlink ref="A7" r:id="rId7" display="rainmaker"/>
@@ -613,32 +613,32 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>92</v>
+        <v>1046</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>2.99</v>
+        <v>4.06</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>1.1</v>
+        <v>1.24</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,22 +646,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>83</v>
+        <v>998</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>4.2</v>
+        <v>4.42</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,22 +669,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>69</v>
+        <v>957</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>4.44</v>
+        <v>4.01</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -692,22 +692,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>89</v>
+        <v>1065</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,22 +715,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>88</v>
+        <v>1033</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.37</v>
+        <v>3.48</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,22 +738,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>52</v>
+        <v>886</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>5.63</v>
+        <v>3.59</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -761,22 +761,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>100</v>
+        <v>1020</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>4.1</v>
+        <v>3.62</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,22 +784,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>82</v>
+        <v>987</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>4.13</v>
+        <v>3.84</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,22 +807,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>69</v>
+        <v>889</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>3.61</v>
+        <v>3.88</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -830,22 +830,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>62</v>
+        <v>957</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>3.65</v>
+        <v>3.62</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1.46</v>
+        <v>1.21</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -853,22 +853,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>97</v>
+        <v>1018</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>4.01</v>
+        <v>4.23</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -876,22 +876,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>78</v>
+        <v>996</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>4.27</v>
+        <v>3.52</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -899,22 +899,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>96</v>
+        <v>958</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>3.57</v>
+        <v>3.99</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,22 +922,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>77</v>
+        <v>940</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>5.7</v>
+        <v>4.12</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +945,7 @@
     <hyperlink ref="A1" r:id="rId1" display="GOD WILLS IT"/>
     <hyperlink ref="A2" r:id="rId2" display="confusion"/>
     <hyperlink ref="A3" r:id="rId3" display="DJ's Quality Team"/>
-    <hyperlink ref="A4" r:id="rId4" display="overRated vs Audigy Scum"/>
+    <hyperlink ref="A4" r:id="rId4" display="Epic7"/>
     <hyperlink ref="A5" r:id="rId5" display="Lundo’s Legends"/>
     <hyperlink ref="A6" r:id="rId6" display="MillerTime"/>
     <hyperlink ref="A7" r:id="rId7" display="rainmaker"/>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -26,40 +26,40 @@
     <t xml:space="preserve">GOD WILLS IT</t>
   </si>
   <si>
+    <t xml:space="preserve">Mac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epic7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rainmaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL Onće</t>
+  </si>
+  <si>
     <t xml:space="preserve">confusion</t>
   </si>
   <si>
+    <t xml:space="preserve">Swampnuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samsquanches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lundo’s Legends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SmokeWalkers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MillerTime</t>
+  </si>
+  <si>
     <t xml:space="preserve">DJ's Quality Team</t>
   </si>
   <si>
-    <t xml:space="preserve">Epic7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lundo’s Legends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MillerTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rainmaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samsquanches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SmokeWalkers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Splitfinger Skadoosh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swampnuts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL Onće</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mac</t>
   </si>
   <si>
     <t xml:space="preserve">Corbin Copy</t>
@@ -251,32 +251,32 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>521</v>
+        <v>682</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>502</v>
+        <v>644</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>0.237</v>
+        <v>0.238</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>0.743</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -284,22 +284,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>475</v>
+        <v>643</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>488</v>
+        <v>665</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.254</v>
+        <v>0.245</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.764</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -307,22 +307,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>513</v>
+        <v>663</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>446</v>
+        <v>637</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.266</v>
+        <v>0.241</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.788</v>
+        <v>0.732</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -330,22 +330,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>526</v>
+        <v>611</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>504</v>
+        <v>596</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0.244</v>
+        <v>0.242</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.743</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -353,22 +353,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>503</v>
+        <v>701</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>507</v>
+        <v>663</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.256</v>
+        <v>0.253</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.767</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,22 +376,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>455</v>
+        <v>623</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>445</v>
+        <v>647</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.249</v>
+        <v>0.263</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.748</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -399,22 +399,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>455</v>
+        <v>632</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>442</v>
+        <v>659</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0.239</v>
+        <v>0.25</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0.729</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,22 +422,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>522</v>
+        <v>658</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>528</v>
+        <v>679</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.265</v>
+        <v>0.259</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.77</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -445,22 +445,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>488</v>
+        <v>687</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>487</v>
+        <v>643</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>0.259</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.779</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,22 +468,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>510</v>
+        <v>618</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>487</v>
+        <v>638</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0.259</v>
+        <v>0.257</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0.759</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -491,22 +491,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>500</v>
+        <v>609</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>508</v>
+        <v>617</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.247</v>
+        <v>0.254</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0.748</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -514,22 +514,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>538</v>
+        <v>659</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>510</v>
+        <v>593</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.253</v>
+        <v>0.268</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0.754</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -537,22 +537,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>469</v>
+        <v>660</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>492</v>
+        <v>621</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0.238</v>
+        <v>0.257</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>0.715</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -560,39 +560,39 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>505</v>
+        <v>662</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>434</v>
+        <v>571</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.267</v>
+        <v>0.268</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0.742</v>
+        <v>0.748</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" display="GOD WILLS IT"/>
-    <hyperlink ref="A2" r:id="rId2" display="confusion"/>
-    <hyperlink ref="A3" r:id="rId3" display="DJ's Quality Team"/>
-    <hyperlink ref="A4" r:id="rId4" display="Epic7"/>
-    <hyperlink ref="A5" r:id="rId5" display="Lundo’s Legends"/>
-    <hyperlink ref="A6" r:id="rId6" display="MillerTime"/>
-    <hyperlink ref="A7" r:id="rId7" display="rainmaker"/>
+    <hyperlink ref="A2" r:id="rId2" display="Mac"/>
+    <hyperlink ref="A3" r:id="rId3" display="Epic7"/>
+    <hyperlink ref="A4" r:id="rId4" display="rainmaker"/>
+    <hyperlink ref="A5" r:id="rId5" display="EL Onće"/>
+    <hyperlink ref="A6" r:id="rId6" display="confusion"/>
+    <hyperlink ref="A7" r:id="rId7" display="Swampnuts"/>
     <hyperlink ref="A8" r:id="rId8" display="Samsquanches"/>
-    <hyperlink ref="A9" r:id="rId9" display="SmokeWalkers"/>
-    <hyperlink ref="A10" r:id="rId10" display="Splitfinger Skadoosh"/>
-    <hyperlink ref="A11" r:id="rId11" display="Swampnuts"/>
-    <hyperlink ref="A12" r:id="rId12" display="EL Onće"/>
-    <hyperlink ref="A13" r:id="rId13" display="Mac"/>
+    <hyperlink ref="A9" r:id="rId9" display="Lundo’s Legends"/>
+    <hyperlink ref="A10" r:id="rId10" display="SmokeWalkers"/>
+    <hyperlink ref="A11" r:id="rId11" display="MillerTime"/>
+    <hyperlink ref="A12" r:id="rId12" display="DJ's Quality Team"/>
+    <hyperlink ref="A13" r:id="rId13" display="Splitfinger Skadoosh"/>
     <hyperlink ref="A14" r:id="rId14" display="Corbin Copy"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -616,167 +616,167 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="n">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>1046</v>
+        <v>1401</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>4.06</v>
+        <v>4.07</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>998</v>
+        <v>1285</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>4.42</v>
+        <v>4.48</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>957</v>
+        <v>1184</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>4.01</v>
+        <v>4.06</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>1.23</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1065</v>
+        <v>1332</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.42</v>
+        <v>3.65</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>1033</v>
+        <v>1353</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3.48</v>
+        <v>3.37</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>886</v>
+        <v>1203</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>3.59</v>
+        <v>3.68</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>1020</v>
+        <v>1357</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>3.62</v>
+        <v>3.54</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,137 +784,137 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>987</v>
+        <v>1323</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>3.84</v>
+        <v>3.7</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>889</v>
+        <v>1192</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>3.88</v>
+        <v>3.75</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>957</v>
+        <v>1309</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>3.62</v>
+        <v>3.56</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>1018</v>
+        <v>1340</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>4.23</v>
+        <v>3.94</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>996</v>
+        <v>1329</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>3.52</v>
+        <v>3.38</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>958</v>
+        <v>1282</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>3.99</v>
+        <v>3.87</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -922,22 +922,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>940</v>
+        <v>1181</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>4.12</v>
+        <v>4.23</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -162,7 +162,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -254,7 +254,7 @@
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -613,10 +613,10 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -761,7 +761,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1357</v>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -250,11 +250,11 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -330,7 +330,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>611</v>
+        <v>711</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>187</v>
@@ -345,7 +345,7 @@
         <v>0.242</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.734</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,11 +612,11 @@
   </sheetPr>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
